--- a/biology/Zoologie/Gerbille_de_Rosalinda/Gerbille_de_Rosalinda.xlsx
+++ b/biology/Zoologie/Gerbille_de_Rosalinda/Gerbille_de_Rosalinda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus rosalinda
-La Gerbille de Rosalinda[1] (Gerbillus rosalinda ou Gerbillus (Gerbillus) rosalinda) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés que l'on rencontre dans certaines régions de Somalie et du Soudan.
+La Gerbille de Rosalinda (Gerbillus rosalinda ou Gerbillus (Gerbillus) rosalinda) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés que l'on rencontre dans certaines régions de Somalie et du Soudan.
 </t>
         </is>
       </c>
